--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1936005.352760731</v>
+        <v>1934117.771244329</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>234.6951566807712</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>41.8578671167577</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>9.27559683049698</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>335.3205472884566</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>311.4936872159398</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>14.46389722690856</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>148.8271244776258</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1184,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>163.9206648785249</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>10.50623107476266</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>41.03250833502995</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>97.42715891998027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>219.0491471058332</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>137.9630269402563</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>152.5925687411142</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>86.47617960322199</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>32.81906837535742</v>
       </c>
       <c r="C19" t="n">
-        <v>27.26009267756244</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2056,13 +2056,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>51.18259951884387</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>190.6405752120375</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2530,16 +2530,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151914</v>
       </c>
       <c r="V25" t="n">
-        <v>228.2066444308517</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,16 +2719,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.913828367536</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>24.01153903325508</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>17.40646930116022</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965527</v>
+        <v>93.41221638965537</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801209</v>
+        <v>91.23070601801219</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437416</v>
+        <v>90.21779139437426</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897914</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.215988835715</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523572</v>
+        <v>21.2038387609585</v>
       </c>
       <c r="S31" t="n">
-        <v>108.0438719104867</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898563</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857101</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896938</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3898,22 +3898,22 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463136</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1540.921096014692</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="C2" t="n">
-        <v>1540.921096014692</v>
+        <v>906.9212171249362</v>
       </c>
       <c r="D2" t="n">
-        <v>1182.655397407941</v>
+        <v>906.9212171249362</v>
       </c>
       <c r="E2" t="n">
-        <v>1182.655397407941</v>
+        <v>521.1329645266919</v>
       </c>
       <c r="F2" t="n">
-        <v>771.6694926183338</v>
+        <v>110.1470597370844</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>96.22365567567526</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>96.22365567567526</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1893.689751284806</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1540.921096014692</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1540.921096014692</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1540.921096014692</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,31 +4407,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E4" t="n">
-        <v>108.9687959810048</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F4" t="n">
-        <v>108.9687959810048</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G4" t="n">
-        <v>108.9687959810048</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>108.9687959810048</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
         <v>99.5995062532301</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1512.612574238668</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C5" t="n">
-        <v>1143.650057298256</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D5" t="n">
-        <v>785.3843586915057</v>
+        <v>1583.321035406938</v>
       </c>
       <c r="E5" t="n">
-        <v>399.5961060932614</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F5" t="n">
-        <v>392.650605344058</v>
+        <v>786.5468780190865</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>368.5830699172734</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>2289.351746278601</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y5" t="n">
-        <v>1899.21241430279</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="6">
@@ -4644,13 +4644,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>548.3816362947775</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>320.3920853967602</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>443.7744035713887</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2531.572661847995</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2277.810876486087</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>1946.747989142516</v>
       </c>
       <c r="W8" t="n">
-        <v>2355.473849053679</v>
+        <v>1593.979333872402</v>
       </c>
       <c r="X8" t="n">
-        <v>1982.008090792599</v>
+        <v>1220.513575611322</v>
       </c>
       <c r="Y8" t="n">
-        <v>1591.868758816787</v>
+        <v>830.3742436355105</v>
       </c>
     </row>
     <row r="9">
@@ -4893,13 +4893,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>418.6523285934728</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="C10" t="n">
-        <v>249.7161456655658</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>600.3007934237124</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5030,10 +5030,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5051,7 +5051,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5121,19 +5121,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.3337308726216</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5206,7 +5206,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5218,31 +5218,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>764.7404518075996</v>
+        <v>955.1031435655739</v>
       </c>
       <c r="W13" t="n">
-        <v>475.3232817706389</v>
+        <v>955.1031435655739</v>
       </c>
       <c r="X13" t="n">
-        <v>247.3337308726216</v>
+        <v>815.7465506966282</v>
       </c>
       <c r="Y13" t="n">
-        <v>247.3337308726216</v>
+        <v>594.9539715530981</v>
       </c>
     </row>
     <row r="14">
@@ -5273,55 +5273,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277036</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341677</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>549.380732274322</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C16" t="n">
-        <v>395.2468244550147</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241958</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5455,31 +5455,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557904</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347409</v>
+        <v>1211.646584106564</v>
       </c>
       <c r="U16" t="n">
-        <v>1275.130855347409</v>
+        <v>922.5179453201218</v>
       </c>
       <c r="V16" t="n">
-        <v>1020.446367141522</v>
+        <v>667.833457114235</v>
       </c>
       <c r="W16" t="n">
-        <v>731.0291971045617</v>
+        <v>667.833457114235</v>
       </c>
       <c r="X16" t="n">
-        <v>731.0291971045617</v>
+        <v>667.833457114235</v>
       </c>
       <c r="Y16" t="n">
-        <v>731.0291971045617</v>
+        <v>447.0408779707049</v>
       </c>
     </row>
     <row r="17">
@@ -5555,10 +5555,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>124.7525386093388</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5671,10 +5671,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
         <v>507.4972331799364</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V19" t="n">
-        <v>755.183133481126</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W19" t="n">
-        <v>755.183133481126</v>
+        <v>898.5039869983195</v>
       </c>
       <c r="X19" t="n">
-        <v>527.1935825831087</v>
+        <v>670.5144361003022</v>
       </c>
       <c r="Y19" t="n">
-        <v>306.4010034395785</v>
+        <v>449.7218569567721</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,25 +5735,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823778</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,7 +5768,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5838,10 +5838,10 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
         <v>2123.441607278215</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>414.0663679705859</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="C22" t="n">
-        <v>245.130185042679</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1447.216675084323</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1247.296664999875</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1247.296664999875</v>
+        <v>1306.350032969985</v>
       </c>
       <c r="U22" t="n">
-        <v>958.1680262134334</v>
+        <v>1017.221394183544</v>
       </c>
       <c r="V22" t="n">
-        <v>703.4835380075465</v>
+        <v>762.5369059776569</v>
       </c>
       <c r="W22" t="n">
-        <v>414.0663679705859</v>
+        <v>473.1197359406963</v>
       </c>
       <c r="X22" t="n">
-        <v>414.0663679705859</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="Y22" t="n">
-        <v>414.0663679705859</v>
+        <v>245.1301850426789</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,10 +5987,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,28 +6005,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6075,7 +6075,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6178,19 +6178,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765188</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>555.5704444251534</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>266.1532743881928</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6221,13 +6221,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,7 +6236,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6245,31 +6245,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6309,22 +6309,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028586</v>
+        <v>563.7235151749146</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028586</v>
+        <v>563.7235151749146</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028586</v>
+        <v>563.7235151749146</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028586</v>
+        <v>415.8104215925216</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028586</v>
+        <v>415.8104215925216</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028586</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
         <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471195</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U28" t="n">
-        <v>1050.95676543139</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="V28" t="n">
-        <v>796.2722772255033</v>
+        <v>1081.130236109892</v>
       </c>
       <c r="W28" t="n">
-        <v>506.8551071885428</v>
+        <v>791.713066072932</v>
       </c>
       <c r="X28" t="n">
-        <v>278.8655562905255</v>
+        <v>563.7235151749146</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905255</v>
+        <v>563.7235151749146</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6549,19 +6549,19 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>600.4439501541575</v>
+        <v>638.460363022717</v>
       </c>
       <c r="C31" t="n">
-        <v>487.2686325076215</v>
+        <v>525.2850453761808</v>
       </c>
       <c r="D31" t="n">
-        <v>392.9128583766566</v>
+        <v>430.9292712452158</v>
       </c>
       <c r="E31" t="n">
-        <v>300.7606300756343</v>
+        <v>338.7770429441933</v>
       </c>
       <c r="F31" t="n">
-        <v>209.6315478590944</v>
+        <v>247.6479607276537</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6479607276537</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.251007986467</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933501</v>
+        <v>369.0876362933499</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667508</v>
+        <v>671.4509053667506</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962048</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
@@ -6637,34 +6637,34 @@
         <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
         <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1914.708044105611</v>
       </c>
       <c r="S31" t="n">
-        <v>1771.676600747264</v>
+        <v>1770.548899302534</v>
       </c>
       <c r="T31" t="n">
-        <v>1603.65205081814</v>
+        <v>1602.52434937341</v>
       </c>
       <c r="U31" t="n">
-        <v>1370.284277313069</v>
+        <v>1369.156575868339</v>
       </c>
       <c r="V31" t="n">
-        <v>1171.360654388553</v>
+        <v>1170.232952943823</v>
       </c>
       <c r="W31" t="n">
-        <v>937.7043496329634</v>
+        <v>936.576648188233</v>
       </c>
       <c r="X31" t="n">
-        <v>765.4756640163168</v>
+        <v>764.3479625715861</v>
       </c>
       <c r="Y31" t="n">
-        <v>600.4439501541575</v>
+        <v>764.3479625715861</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6677,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6716,31 +6716,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6786,7 +6786,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229686</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506739</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083218</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504524</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550605</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610194</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155913</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121733</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851619</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590539</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614727</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
         <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358149</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7050,7 +7050,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
         <v>1571.258395043133</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F37" t="n">
         <v>320.884739850451</v>
@@ -7087,16 +7087,16 @@
         <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649693</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7151,52 +7151,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254956</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,28 +7394,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7427,16 +7427,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7543,52 +7543,52 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108319</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229661</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506714</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649686</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384655</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986522</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045196</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010305</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7634,46 +7634,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7828,7 +7828,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142014</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,22 +8769,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9006,28 +9006,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229573</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,13 +9255,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9486,13 +9486,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>288.4091825776751</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>288.4091825776756</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10200,19 +10200,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298571</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23467,22 +23467,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>33.08849621799484</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>87.74662844878085</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>14.65425235751359</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23701,25 +23701,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>135.0713814551673</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>147.0129118065799</v>
       </c>
       <c r="C19" t="n">
-        <v>139.9867284210654</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,13 +23944,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>58.78175288494892</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>30.90698584635174</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24418,16 +24418,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.39383318338592</v>
       </c>
       <c r="V25" t="n">
-        <v>23.93099889297628</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633775</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>262.2258133653222</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>234.7311740226678</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897904</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571492</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>33.5572570142773</v>
       </c>
       <c r="S31" t="n">
-        <v>34.67368144455945</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1.56319401867222e-12</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>6.963318810448982e-13</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>881650.7453192547</v>
+        <v>881650.7453192546</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>881650.7453192545</v>
+        <v>881650.7453192546</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>881650.7453192545</v>
+        <v>881650.7453192546</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>881650.7453192545</v>
+        <v>881650.7453192546</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>924532.760747007</v>
+        <v>924532.7607470069</v>
       </c>
     </row>
     <row r="14">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117848</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="E2" t="n">
-        <v>508337.7776590214</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="F2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="G2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="H2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="I2" t="n">
         <v>508337.7776590215</v>
@@ -26338,19 +26338,19 @@
         <v>508337.7776590216</v>
       </c>
       <c r="K2" t="n">
-        <v>528868.7785488521</v>
+        <v>528868.7785488504</v>
       </c>
       <c r="L2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="M2" t="n">
         <v>533677.1504117844</v>
       </c>
       <c r="N2" t="n">
+        <v>533677.1504117844</v>
+      </c>
+      <c r="O2" t="n">
         <v>533677.1504117843</v>
-      </c>
-      <c r="O2" t="n">
-        <v>533677.1504117844</v>
       </c>
       <c r="P2" t="n">
         <v>533677.1504117844</v>
@@ -26375,7 +26375,7 @@
         <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>3.100233243458205e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284563</v>
+        <v>44162.60530284554</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086685</v>
+        <v>10342.90680086693</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284565</v>
+        <v>44162.60530284559</v>
       </c>
     </row>
     <row r="4">
@@ -26427,34 +26427,34 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687064</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687072</v>
       </c>
       <c r="H4" t="n">
+        <v>22174.60758687071</v>
+      </c>
+      <c r="I4" t="n">
         <v>22174.60758687072</v>
       </c>
-      <c r="I4" t="n">
-        <v>22174.60758687071</v>
-      </c>
       <c r="J4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.60758687068</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106727</v>
+        <v>40339.23010106722</v>
       </c>
       <c r="L4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.3948281911</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="N4" t="n">
         <v>44593.3948281912</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="P4" t="n">
         <v>44593.3948281912</v>
@@ -26479,37 +26479,37 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="M5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="N5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="O5" t="n">
         <v>97715.10582002538</v>
       </c>
-      <c r="M5" t="n">
-        <v>97715.10582002543</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.1058200254</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.1058200254</v>
-      </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-304782.6746526944</v>
+        <v>-304782.6746526941</v>
       </c>
       <c r="C6" t="n">
-        <v>285185.2045618504</v>
+        <v>285185.2045618509</v>
       </c>
       <c r="D6" t="n">
-        <v>285185.2045618504</v>
+        <v>285185.2045618508</v>
       </c>
       <c r="E6" t="n">
-        <v>-130984.1923534621</v>
+        <v>-131081.6514794341</v>
       </c>
       <c r="F6" t="n">
-        <v>394175.844123434</v>
+        <v>394078.384997462</v>
       </c>
       <c r="G6" t="n">
-        <v>394175.8441234346</v>
+        <v>394078.384997462</v>
       </c>
       <c r="H6" t="n">
-        <v>394175.8441234343</v>
+        <v>394078.384997462</v>
       </c>
       <c r="I6" t="n">
-        <v>394175.8441234342</v>
+        <v>394078.384997462</v>
       </c>
       <c r="J6" t="n">
-        <v>217752.6249308412</v>
+        <v>217655.1658048689</v>
       </c>
       <c r="K6" t="n">
-        <v>347738.7346147164</v>
+        <v>347720.2408767805</v>
       </c>
       <c r="L6" t="n">
-        <v>381025.742962701</v>
+        <v>381025.7429627008</v>
       </c>
       <c r="M6" t="n">
-        <v>256567.6345297306</v>
+        <v>256567.6345297307</v>
       </c>
       <c r="N6" t="n">
+        <v>391368.6497635678</v>
+      </c>
+      <c r="O6" t="n">
         <v>391368.6497635677</v>
       </c>
-      <c r="O6" t="n">
-        <v>391368.6497635678</v>
-      </c>
       <c r="P6" t="n">
-        <v>347206.0444607221</v>
+        <v>347206.0444607222</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964068</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26747,25 +26747,25 @@
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="J3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="J3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
@@ -26799,7 +26799,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26820,7 +26820,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108356</v>
+        <v>12.92863350108367</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="3">
@@ -26969,7 +26969,7 @@
         <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27021,7 +27021,7 @@
         <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990182</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855691</v>
       </c>
     </row>
     <row r="3">
@@ -27267,7 +27267,7 @@
         <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>179.0890133400237</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>110.0734491281036</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27543,19 +27543,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.6900249618412</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>78.46362273233842</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>12.42908554841733</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>152.7829238717193</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>137.6958738589652</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>52.52765547913293</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>338.7347376426504</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>138.7994718469074</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>121.1574944321145</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28561,70 +28561,70 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,37 +31999,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,31 +32072,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q12" t="n">
         <v>88.01303278507413</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504663</v>
@@ -35975,13 +35975,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>570.772884818783</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,16 +36206,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>598.8335596281414</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>570.7728848187837</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36376,10 +36376,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,16 +36443,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.5077701655656</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>621.6037559756885</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941226</v>
+        <v>67.71102679412252</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
         <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043183</v>
+        <v>94.42895660043175</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,16 +37154,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,10 +37236,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970350134</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37637,13 +37637,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
